--- a/data/mistakes/stanza_lowercase_lemma_mistakes.xlsx
+++ b/data/mistakes/stanza_lowercase_lemma_mistakes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E442"/>
+  <dimension ref="A1:E441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Treterówną</t>
+          <t>Rosyi</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>siostrą Treterówną –</t>
+          <t>w Rosyi –</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>treterówną</t>
+          <t>rosya</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>treterówna</t>
+          <t>rosej</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Rosyi</t>
+          <t>napastował</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>w Rosyi –</t>
+          <t>dziwak napastował ludzi</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>rosya</t>
+          <t>napastować</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>rosej</t>
+          <t>napastował</t>
         </is>
       </c>
     </row>
@@ -3436,22 +3436,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>napastował</t>
+          <t>wyznaczając</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>dziwak napastował ludzi</t>
+          <t>, wyznaczając jakąś</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>napastować</t>
+          <t>wyznaczać</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>napastował</t>
+          <t>wyznaczając</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>wyznaczając</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>, wyznaczając jakąś</t>
+          <t>Ojciec móy sierota</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>wyznaczać</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>wyznaczając</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -3486,22 +3486,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>smakował</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ojciec móy sierota</t>
+          <t>bardzo smakował w</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>smakować</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>smakował</t>
         </is>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>smakował</t>
+          <t>niżeli</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>bardzo smakował w</t>
+          <t>, niżeli książki</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>smakować</t>
+          <t>niżeli</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>smakował</t>
+          <t>niżela</t>
         </is>
       </c>
     </row>
@@ -3536,22 +3536,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>niżeli</t>
+          <t>zawerbował</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>, niżeli książki</t>
+          <t>napoleońskich zawerbował się</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>niżeli</t>
+          <t>zawerbować</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>niżela</t>
+          <t>zawerbował</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>zawerbował</t>
+          <t>Cobary</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>napoleońskich zawerbował się</t>
+          <t>Sachsen Cobary Ułanów</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>zawerbować</t>
+          <t>cobary</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>zawerbował</t>
+          <t>cobar</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>szlify</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sachsen Cobary Ułanów</t>
+          <t>otrzymał szlify oficerskie</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>cobary</t>
+          <t>szlif</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>cobar</t>
+          <t>szlify</t>
         </is>
       </c>
     </row>
@@ -3611,22 +3611,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>szlify</t>
+          <t>ś</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>otrzymał szlify oficerskie</t>
+          <t>mi ś .</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>szlif</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>szlify</t>
+          <t>być</t>
         </is>
       </c>
     </row>
@@ -3636,22 +3636,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ś</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>mi ś .</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>pamięci</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>być</t>
+          <t>pan</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>nieśmiał</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>ja nieśmiał em</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>pamięci</t>
+          <t>nieśmieć</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>nieśmiał</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>nieśmiał</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ja nieśmiał em</t>
+          <t>Wreszcie niebył em</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>nieśmieć</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>nieśmiał</t>
+          <t>niebył</t>
         </is>
       </c>
     </row>
@@ -3711,22 +3711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Wreszcie niebył em</t>
+          <t>z Oycem na</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>oycie</t>
         </is>
       </c>
     </row>
@@ -3736,22 +3736,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>Młodzieniaszkiem</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>z Oycem na</t>
+          <t>. Młodzieniaszkiem oddany</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>młodzieniaszek</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>oycie</t>
+          <t>młodzieniaszko</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Młodzieniaszkiem</t>
+          <t>oddany</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>. Młodzieniaszkiem oddany</t>
+          <t>Młodzieniaszkiem oddany do</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>młodzieniaszek</t>
+          <t>oddany</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>młodzieniaszko</t>
+          <t>oddać</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>oddany</t>
+          <t>Dziaduniów</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Młodzieniaszkiem oddany do</t>
+          <t>u Dziaduniów w</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>oddany</t>
+          <t>dziadunio</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>oddać</t>
+          <t>dziadunie</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3811,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Dziaduniów</t>
+          <t>zostawało</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>u Dziaduniów w</t>
+          <t>mało zostawało czasu</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>dziadunio</t>
+          <t>zostawać</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>dziadunie</t>
+          <t>zostawało</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>zostawało</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>mało zostawało czasu</t>
+          <t>. móy Oyciec</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>zostawać</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>zostawało</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>kończ</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>. móy Oyciec</t>
+          <t>do kończ życia</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>koniec</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>kończ</t>
         </is>
       </c>
     </row>
@@ -3886,22 +3886,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>kończ</t>
+          <t>Brał</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>do kończ życia</t>
+          <t>. Brał udział</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>koniec</t>
+          <t>brać</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>kończ</t>
+          <t>brał</t>
         </is>
       </c>
     </row>
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Brał</t>
+          <t>assekuracyi</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>. Brał udział</t>
+          <t>w assekuracyi armat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>brać</t>
+          <t>assekuracya</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>brał</t>
+          <t>assekuracyj</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>kontuzjowany</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>w assekuracyi armat</t>
+          <t>sam kontuzjowany leżał</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>assekuracya</t>
+          <t>kontuzjować</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>assekuracyj</t>
+          <t>kontuzjowany</t>
         </is>
       </c>
     </row>
@@ -3961,22 +3961,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>kontuzjowany</t>
+          <t>nieżywy</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>sam kontuzjowany leżał</t>
+          <t>jak nieżywy –</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>kontuzjować</t>
+          <t>nieżywy</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>kontuzjowany</t>
+          <t>nieżywa</t>
         </is>
       </c>
     </row>
@@ -3986,22 +3986,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>nieżywy</t>
+          <t>przemaszerował</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>jak nieżywy –</t>
+          <t>Francuzów przemaszerował po</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>nieżywy</t>
+          <t>przemaszerować</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>nieżywa</t>
+          <t>przemaszerował</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>przemaszerował</t>
+          <t>kłując</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Francuzów przemaszerował po</t>
+          <t>, kłując bagnetami</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>przemaszerować</t>
+          <t>kłuć</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>przemaszerował</t>
+          <t>kłując</t>
         </is>
       </c>
     </row>
@@ -4036,22 +4036,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>kłując</t>
+          <t>zwinięty</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>, kłując bagnetami</t>
+          <t>płaszcz zwinięty obwiązany</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>kłuć</t>
+          <t>zwinąć</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>kłując</t>
+          <t>zwiniąt</t>
         </is>
       </c>
     </row>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>zwinięty</t>
+          <t>obwiązany</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>płaszcz zwinięty obwiązany</t>
+          <t>zwinięty obwiązany przez</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>zwinąć</t>
+          <t>obwiązać</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>zwiniąt</t>
+          <t>obwiązany</t>
         </is>
       </c>
     </row>
@@ -4086,22 +4086,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>obwiązany</t>
+          <t>dostawały</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>zwinięty obwiązany przez</t>
+          <t>ukłucia dostawały się</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>obwiązać</t>
+          <t>dostawać</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>obwiązany</t>
+          <t>dostawał</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>dostawały</t>
+          <t>dorobił</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ukłucia dostawały się</t>
+          <t>epoki dorobił się</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>dostawać</t>
+          <t>dorobić</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>dostawał</t>
+          <t>dorobił</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4136,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>dorobił</t>
+          <t>skrzętnem</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>epoki dorobił się</t>
+          <t>fortuny skrzętnem gospodarstwem</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>dorobić</t>
+          <t>skrzętny</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>dorobił</t>
+          <t>skrzętno</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>Siemiginów</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>fortuny skrzętnem gospodarstwem</t>
+          <t>wieś Siemiginów w</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>skrzętny</t>
+          <t>siemiginów</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>skrzętno</t>
+          <t>siemigin</t>
         </is>
       </c>
     </row>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>wieś Siemiginów w</t>
+          <t>po tem jak</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>siemiginów</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>siemigin</t>
+          <t>tem</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>powiadano</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>po tem jak</t>
+          <t>jak powiadano za</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>powiadać</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>powiadano</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>powiadano</t>
+          <t>set</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>jak powiadano za</t>
+          <t>parę set sztuk</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>powiadać</t>
+          <t>sto</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>powiadano</t>
+          <t>set</t>
         </is>
       </c>
     </row>
@@ -4261,22 +4261,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>Lwowa</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>parę set sztuk</t>
+          <t>do Lwowa w</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>sto</t>
+          <t>lwów</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>lwowa</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Lwowa</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>do Lwowa w</t>
+          <t>kupił Bludniki za</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>lwów</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>lwowa</t>
+          <t>bludnik</t>
         </is>
       </c>
     </row>
@@ -4311,22 +4311,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>wyliczył</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>kupił Bludniki za</t>
+          <t>które wyliczył Pani</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>wyliczyć</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>wyliczył</t>
         </is>
       </c>
     </row>
@@ -4336,22 +4336,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>wyliczył</t>
+          <t>zakłopotał</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>które wyliczył Pani</t>
+          <t>skryptu zakłopotał się</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>wyliczyć</t>
+          <t>zakłopotać</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>wyliczył</t>
+          <t>zakłopotał</t>
         </is>
       </c>
     </row>
@@ -4361,22 +4361,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>zakłopotał</t>
+          <t>zwoływał</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>skryptu zakłopotał się</t>
+          <t>miejscowy zwoływał gromadę</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>zakłopotać</t>
+          <t>zwoływać</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>zakłopotał</t>
+          <t>zwoływał</t>
         </is>
       </c>
     </row>
@@ -4386,22 +4386,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>zwoływał</t>
+          <t>oddawał</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>miejscowy zwoływał gromadę</t>
+          <t>i oddawał tak</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>zwoływać</t>
+          <t>oddawać</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>zwoływał</t>
+          <t>oddawał</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>oddawał</t>
+          <t>nazwane</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>i oddawał tak</t>
+          <t>tak nazwane posłuszeństwo</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>oddawać</t>
+          <t>nazwać</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>oddawał</t>
+          <t>nazwane</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>nazwane</t>
+          <t>posiadanie</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>tak nazwane posłuszeństwo</t>
+          <t>we posiadanie majątku</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>nazwać</t>
+          <t>posiadanie</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>nazwane</t>
+          <t>posiadać</t>
         </is>
       </c>
     </row>
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>posiadanie</t>
+          <t>daninami</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>we posiadanie majątku</t>
+          <t>osypami daninami od</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>posiadanie</t>
+          <t>danina</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>posiadać</t>
+          <t>danin</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>daninami</t>
+          <t>poddanych</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>osypami daninami od</t>
+          <t>od poddanych -</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>danina</t>
+          <t>poddany</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>danin</t>
+          <t>poddane</t>
         </is>
       </c>
     </row>
@@ -4511,22 +4511,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>poddanych</t>
+          <t>któremi</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>od poddanych -</t>
+          <t>nad któremi obeymował</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>poddany</t>
+          <t>który</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>poddane</t>
+          <t>któr</t>
         </is>
       </c>
     </row>
@@ -4536,22 +4536,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>obeymował</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>nad któremi obeymował</t>
+          <t>któremi obeymował Dziedzictwo</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>który</t>
+          <t>obeymować</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>któr</t>
+          <t>obeymował</t>
         </is>
       </c>
     </row>
@@ -4561,22 +4561,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>któremi obeymował Dziedzictwo</t>
+          <t>prawną juryzdyksye sądową</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>obeymować</t>
+          <t>juryzdyksya</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>policyjną</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>prawną juryzdyksye sądową</t>
+          <t>i policyjną pierwszey</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>juryzdyksya</t>
+          <t>policyjny</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>policyjna</t>
         </is>
       </c>
     </row>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>policyjną</t>
+          <t>pierwszey</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>i policyjną pierwszey</t>
+          <t>policyjną pierwszey instantacyi</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>policyjny</t>
+          <t>pierwsza</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>policyjna</t>
+          <t>pierwsze</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>pierwszey</t>
+          <t>instantacyi</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>policyjną pierwszey instantacyi</t>
+          <t>pierwszey instantacyi .</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>pierwsza</t>
+          <t>instantacya</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>pierwsze</t>
+          <t>instantaka</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>odbywali</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>pierwszey instantacyi .</t>
+          <t>robocie odbywali poddani</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>instantacya</t>
+          <t>odbywać</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>instantaka</t>
+          <t>odbywal</t>
         </is>
       </c>
     </row>
@@ -4686,22 +4686,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>odbywali</t>
+          <t>poddani</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>robocie odbywali poddani</t>
+          <t>odbywali poddani wedle</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>odbywać</t>
+          <t>poddany</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>odbywal</t>
+          <t>poddanie</t>
         </is>
       </c>
     </row>
@@ -4711,22 +4711,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>poddani</t>
+          <t>posiadanych</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>odbywali poddani wedle</t>
+          <t>ilości posiadanych morgów</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>poddany</t>
+          <t>posiadać</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>poddanie</t>
+          <t>posiadany</t>
         </is>
       </c>
     </row>
@@ -4736,22 +4736,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>posiadanych</t>
+          <t>morgów</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ilości posiadanych morgów</t>
+          <t>posiadanych morgów -</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>posiadać</t>
+          <t>morg</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>posiadany</t>
+          <t>morge</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>morgów</t>
+          <t>całorolni</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>posiadanych morgów -</t>
+          <t>więc całorolni gospodarze</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>morg</t>
+          <t>całorolny</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>morge</t>
+          <t>całorolnia</t>
         </is>
       </c>
     </row>
@@ -4786,22 +4786,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>całorolni</t>
+          <t>półrolni</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>więc całorolni gospodarze</t>
+          <t>albo półrolni –</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>całorolny</t>
+          <t>półrolny</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>całorolnia</t>
+          <t>półrolnia</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>półrolni</t>
+          <t>ci</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>albo półrolni –</t>
+          <t>– ci winni</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>półrolny</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>półrolnia</t>
+          <t>ty</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>winni</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>– ci winni</t>
+          <t>ci winni byli</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>winny</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ty</t>
+          <t>winien</t>
         </is>
       </c>
     </row>
@@ -4861,22 +4861,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>winni</t>
+          <t>chałupnicy</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ci winni byli</t>
+          <t>i chałupnicy -</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>winny</t>
+          <t>chałupnik</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>winien</t>
+          <t>chałupnica</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>chałupnicy</t>
+          <t>ci</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>i chałupnicy -</t>
+          <t>- ci odrabiali</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>chałupnik</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>chałupnica</t>
+          <t>ty</t>
         </is>
       </c>
     </row>
@@ -4911,22 +4911,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>odrabiali</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>- ci odrabiali</t>
+          <t>ci odrabiali powinności</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>odrabiać</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ty</t>
+          <t>odrabiał</t>
         </is>
       </c>
     </row>
@@ -4936,22 +4936,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>odrabiali</t>
+          <t>oddawali</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ci odrabiali powinności</t>
+          <t>półgruntów oddawali poddani</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>odrabiać</t>
+          <t>oddawać</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>odrabiał</t>
+          <t>oddawał</t>
         </is>
       </c>
     </row>
@@ -4961,22 +4961,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>oddawali</t>
+          <t>poddani</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>półgruntów oddawali poddani</t>
+          <t>oddawali poddani jakąś</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>oddawać</t>
+          <t>poddany</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>oddawał</t>
+          <t>poddanie</t>
         </is>
       </c>
     </row>
@@ -4986,22 +4986,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>poddani</t>
+          <t>korce</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>oddawali poddani jakąś</t>
+          <t>dwa korce jeden</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>poddany</t>
+          <t>korzec</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>poddanie</t>
+          <t>korka</t>
         </is>
       </c>
     </row>
@@ -5011,22 +5011,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>korce</t>
+          <t>tego</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>dwa korce jeden</t>
+          <t>Oprócz tego ci</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>korzec</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>korka</t>
+          <t>ten</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>tego</t>
+          <t>ci</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Oprócz tego ci</t>
+          <t>tego ci i</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>ty</t>
         </is>
       </c>
     </row>
@@ -5061,22 +5061,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>miewali</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>tego ci i</t>
+          <t>– miewali oni</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>miewać</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ty</t>
+          <t>miewal</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>miewali</t>
+          <t>gromadzkiego</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>– miewali oni</t>
+          <t>bydła gromadzkiego .</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>miewać</t>
+          <t>gromadzki</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>miewal</t>
+          <t>gromadzek</t>
         </is>
       </c>
     </row>
@@ -5111,22 +5111,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>gromadzkiego</t>
+          <t>obowiązane</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>bydła gromadzkiego .</t>
+          <t>Także obowiązane były</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>gromadzki</t>
+          <t>obowiązany</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>gromadzek</t>
+          <t>obowiązane</t>
         </is>
       </c>
     </row>
@@ -5136,22 +5136,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>obowiązane</t>
+          <t>motków</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Także obowiązane były</t>
+          <t>ilość motków uprząść</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>obowiązany</t>
+          <t>motek</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>obowiązane</t>
+          <t>motk</t>
         </is>
       </c>
     </row>
@@ -5161,22 +5161,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>motków</t>
+          <t>ratował</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ilość motków uprząść</t>
+          <t>pastwisko ratował w</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>motek</t>
+          <t>ratować</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>motk</t>
+          <t>ratował</t>
         </is>
       </c>
     </row>
@@ -5186,22 +5186,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ratował</t>
+          <t>biedzie</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>pastwisko ratował w</t>
+          <t>w biedzie zbożem</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ratować</t>
+          <t>bieda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ratował</t>
+          <t>biedź</t>
         </is>
       </c>
     </row>
@@ -5211,22 +5211,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>biedzie</t>
+          <t>chlubił</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>w biedzie zbożem</t>
+          <t>się chlubił ,</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>bieda</t>
+          <t>chlubić</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>biedź</t>
+          <t>chlubił</t>
         </is>
       </c>
     </row>
@@ -5236,22 +5236,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>chlubił</t>
+          <t>kmiecie</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>się chlubił ,</t>
+          <t>jego kmiecie na</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>chlubić</t>
+          <t>kmieć</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>chlubił</t>
+          <t>kmieta</t>
         </is>
       </c>
     </row>
@@ -5261,22 +5261,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>kmiecie</t>
+          <t>Długim</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>jego kmiecie na</t>
+          <t>na Długim najlepsze</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>kmieć</t>
+          <t>długi</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>kmieta</t>
+          <t>długim</t>
         </is>
       </c>
     </row>
@@ -5286,22 +5286,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Długim</t>
+          <t>bydle</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>na Długim najlepsze</t>
+          <t>padło bydle robocze</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>długi</t>
+          <t>bydlę</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>długim</t>
+          <t>byska</t>
         </is>
       </c>
     </row>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>bydle</t>
+          <t>robocze</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>padło bydle robocze</t>
+          <t>bydle robocze –</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>bydlę</t>
+          <t>roboczy</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>byska</t>
+          <t>robocze</t>
         </is>
       </c>
     </row>
@@ -5336,22 +5336,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>robocze</t>
+          <t>ustawała</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>bydle robocze –</t>
+          <t>nie ustawała .</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>roboczy</t>
+          <t>ustawać</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>robocze</t>
+          <t>ustawał</t>
         </is>
       </c>
     </row>
@@ -5361,22 +5361,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ustawała</t>
+          <t>Dłużanie</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>nie ustawała .</t>
+          <t>raz Dłużanie żalili</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ustawać</t>
+          <t>dłużanin</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ustawał</t>
+          <t>dłużać</t>
         </is>
       </c>
     </row>
@@ -5386,22 +5386,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Dłużanie</t>
+          <t>żalili</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>raz Dłużanie żalili</t>
+          <t>Dłużanie żalili się</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>dłużanin</t>
+          <t>żalić</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>dłużać</t>
+          <t>żalila</t>
         </is>
       </c>
     </row>
@@ -5411,22 +5411,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>żalili</t>
+          <t>niemają</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Dłużanie żalili się</t>
+          <t>że niemają dogodnego</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>żalić</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>żalila</t>
+          <t>niema</t>
         </is>
       </c>
     </row>
@@ -5436,22 +5436,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>niemają</t>
+          <t>Oddzieli</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>że niemają dogodnego</t>
+          <t>– Oddzieli śp</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>oddzielić</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>niema</t>
+          <t>oddziel</t>
         </is>
       </c>
     </row>
@@ -5461,22 +5461,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Oddzieli</t>
+          <t>morgów</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>– Oddzieli śp</t>
+          <t>60 morgów suchey</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>oddzielić</t>
+          <t>mórg</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>oddziel</t>
+          <t>morge</t>
         </is>
       </c>
     </row>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>morgów</t>
+          <t>suchey</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>60 morgów suchey</t>
+          <t>morgów suchey łąki</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>mórg</t>
+          <t>suchy</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>morge</t>
+          <t>suchey</t>
         </is>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>łąki</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>morgów suchey łąki</t>
+          <t>suchey łąki podedworem</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>suchy</t>
+          <t>łąka</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>łąk</t>
         </is>
       </c>
     </row>
@@ -5536,22 +5536,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>łąki</t>
+          <t>podedworem</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>suchey łąki podedworem</t>
+          <t>łąki podedworem a</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>łąka</t>
+          <t>podedwór</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>łąk</t>
+          <t>podedwor</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5561,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>nayskładniey</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>łąki podedworem a</t>
+          <t>a nayskładniey położone</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>podedwór</t>
+          <t>składnie</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>podedwor</t>
+          <t>nayskładnie</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>położone</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>a nayskładniey położone</t>
+          <t>nayskładniey położone dla</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>składnie</t>
+          <t>położony</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>nayskładnie</t>
+          <t>położyć</t>
         </is>
       </c>
     </row>
@@ -5611,22 +5611,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>położone</t>
+          <t>posiadanie</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>nayskładniey położone dla</t>
+          <t>w posiadanie .</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>położony</t>
+          <t>posiadanie</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>położyć</t>
+          <t>posiadać</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>posiadanie</t>
+          <t>Niebył</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>w posiadanie .</t>
+          <t>. Niebył to</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>posiadanie</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>posiadać</t>
+          <t>niebył</t>
         </is>
       </c>
     </row>
@@ -5661,22 +5661,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Niebył</t>
+          <t>spełniony</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>. Niebył to</t>
+          <t>obowiązek spełniony ale</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>spełnić</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>spełniony</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>spełniony</t>
+          <t>poddanych</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>obowiązek spełniony ale</t>
+          <t>dla poddanych .</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>spełnić</t>
+          <t>poddany</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>spełniony</t>
+          <t>poddane</t>
         </is>
       </c>
     </row>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>poddanych</t>
+          <t>warżenia</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>dla poddanych .</t>
+          <t>prawo warżenia piwa</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>poddany</t>
+          <t>warżyć</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>poddane</t>
+          <t>warżenie</t>
         </is>
       </c>
     </row>
@@ -5736,22 +5736,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>gromadzie</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>prawo warżenia piwa</t>
+          <t>Jeżeli gromadzie pozwolono</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>warżyć</t>
+          <t>gromada</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>warżenie</t>
+          <t>gromad</t>
         </is>
       </c>
     </row>
@@ -5761,22 +5761,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>gromadzie</t>
+          <t>leśni</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Jeżeli gromadzie pozwolono</t>
+          <t>byli leśni -</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>gromada</t>
+          <t>leśny</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>gromad</t>
+          <t>leśnia</t>
         </is>
       </c>
     </row>
@@ -5786,22 +5786,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>leśni</t>
+          <t>poddani</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>byli leśni -</t>
+          <t>- poddani uwolnieni</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>leśny</t>
+          <t>poddany</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>leśnia</t>
+          <t>poddanie</t>
         </is>
       </c>
     </row>
@@ -5811,22 +5811,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>poddani</t>
+          <t>uwolnieni</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>- poddani uwolnieni</t>
+          <t>poddani uwolnieni za</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>poddany</t>
+          <t>uwolnić</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>poddanie</t>
+          <t>uwolnień</t>
         </is>
       </c>
     </row>
@@ -5836,22 +5836,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>uwolnieni</t>
+          <t>miarkmi</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>poddani uwolnieni za</t>
+          <t>– miarkmi wianki</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>uwolnić</t>
+          <t>miarka</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>uwolnień</t>
+          <t>miarko</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>dziesiąty</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>– miarkmi wianki</t>
+          <t>jest dziesiąty pniak</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>miarka</t>
+          <t>dziesiąty</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>miarko</t>
+          <t>dziesiąt</t>
         </is>
       </c>
     </row>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>dziesiąty</t>
+          <t>Zdawało</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>jest dziesiąty pniak</t>
+          <t>. Zdawało by</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>dziesiąty</t>
+          <t>zdawać</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>dziesiąt</t>
+          <t>zdawało</t>
         </is>
       </c>
     </row>
@@ -5911,22 +5911,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Zdawało</t>
+          <t>takiem</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>. Zdawało by</t>
+          <t>przy takiem obciążeniu</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>zdawać</t>
+          <t>taki</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>zdawało</t>
+          <t>tak</t>
         </is>
       </c>
     </row>
@@ -5936,22 +5936,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>obciążeniu</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>przy takiem obciążeniu</t>
+          <t>takiem obciążeniu gruntu</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>taki</t>
+          <t>obciążyć</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>tak</t>
+          <t>obciążenie</t>
         </is>
       </c>
     </row>
@@ -5961,22 +5961,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>obciążeniu</t>
+          <t>urzędowa</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>takiem obciążeniu gruntu</t>
+          <t>pieczęć urzędowa jurysdykcyi</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>obciążyć</t>
+          <t>urzędowy</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>obciążenie</t>
+          <t>urzędowa</t>
         </is>
       </c>
     </row>
@@ -5986,22 +5986,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>urzędowa</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>pieczęć urzędowa jurysdykcyi</t>
+          <t>urzędowa jurysdykcyi był</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>urzędowy</t>
+          <t>jurysdykcya</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>urzędowa</t>
+          <t>jurysdykcyj</t>
         </is>
       </c>
     </row>
@@ -6011,22 +6011,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>urzędowa jurysdykcyi był</t>
+          <t>Herb Dziedzica –</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>jurysdykcya</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>jurysdykcyj</t>
+          <t>dziedzica</t>
         </is>
       </c>
     </row>
@@ -6036,22 +6036,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Herb Dziedzica –</t>
+          <t>Dominium Bludniki –</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>dziedzica</t>
+          <t>bludnik</t>
         </is>
       </c>
     </row>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Dominium Bludniki –</t>
+          <t>i t .</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>tym</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>t</t>
         </is>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>i t .</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>tym</t>
+          <t>podobne</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>pan</t>
         </is>
       </c>
     </row>
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>niemógł</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>Nieszlachcic niemógł kupować</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>podobne</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>niemógł</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>postanawiał</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Nieszlachcic niemógł kupować</t>
+          <t>Dziedzic postanawiał na</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>postanawiać</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>postanawiał</t>
         </is>
       </c>
     </row>
@@ -6161,22 +6161,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>postanawiał</t>
+          <t>mieycus</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Dziedzic postanawiał na</t>
+          <t>swojem mieycus Mandatariusza</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>postanawiać</t>
+          <t>mieysce</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>postanawiał</t>
+          <t>mieycus</t>
         </is>
       </c>
     </row>
@@ -6186,22 +6186,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>obliczał</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>swojem mieycus Mandatariusza</t>
+          <t>który obliczał podatki</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>mieysce</t>
+          <t>obliczać</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>obliczał</t>
         </is>
       </c>
     </row>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>obliczał</t>
+          <t>rekruta</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>który obliczał podatki</t>
+          <t>wybierał rekruta i</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>obliczać</t>
+          <t>rekrut</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>obliczał</t>
+          <t>rekruta</t>
         </is>
       </c>
     </row>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>rekruta</t>
+          <t>odstawiał</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>wybierał rekruta i</t>
+          <t>i odstawiał do</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>rekrut</t>
+          <t>odstawiać</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>rekruta</t>
+          <t>odstawiał</t>
         </is>
       </c>
     </row>
@@ -6261,22 +6261,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>odstawiał</t>
+          <t>urzędował</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>i odstawiał do</t>
+          <t>, urzędował –</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>odstawiać</t>
+          <t>urzędować</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>odstawiał</t>
+          <t>urzędował</t>
         </is>
       </c>
     </row>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>urzędował</t>
+          <t>karał</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>, urzędował –</t>
+          <t>– karał –</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>urzędować</t>
+          <t>karać</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>urzędował</t>
+          <t>karał</t>
         </is>
       </c>
     </row>
@@ -6311,22 +6311,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>karał</t>
+          <t>nazwanym</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>– karał –</t>
+          <t>tak nazwanym urzędzie</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>karać</t>
+          <t>nazwać</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>karał</t>
+          <t>nazwany</t>
         </is>
       </c>
     </row>
@@ -6336,22 +6336,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>nazwanym</t>
+          <t>opiekuńczą</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>tak nazwanym urzędzie</t>
+          <t>władzą opiekuńczą –</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>nazwać</t>
+          <t>opiekuńczy</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>nazwany</t>
+          <t>opiekuńcza</t>
         </is>
       </c>
     </row>
@@ -6361,22 +6361,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>opiekuńczą</t>
+          <t>niemogło</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>władzą opiekuńczą –</t>
+          <t>– niemogło się</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>opiekuńczy</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>opiekuńcza</t>
+          <t>niemogło</t>
         </is>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>nieprzyniósł</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>– niemogło się</t>
+          <t>Dominii nieprzyniósł kartki</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>nieprzynieść</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>nieprzyniósło</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>nieprzyniósł</t>
+          <t>nadużycia</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Dominii nieprzyniósł kartki</t>
+          <t>dziać nadużycia –</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>nieprzynieść</t>
+          <t>nadużycie</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>nieprzyniósło</t>
+          <t>nadużywać</t>
         </is>
       </c>
     </row>
@@ -6436,22 +6436,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>nadużycia</t>
+          <t>wyjątkowe</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>dziać nadużycia –</t>
+          <t>być wyjątkowe ,</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>nadużycie</t>
+          <t>wyjątkowy</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>nadużywać</t>
+          <t>wyjątkowa</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>wyjątkowe</t>
+          <t>czuwał</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>być wyjątkowe ,</t>
+          <t>wsi czuwał nad</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>wyjątkowy</t>
+          <t>czuwać</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>wyjątkowa</t>
+          <t>czuwał</t>
         </is>
       </c>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>czuwał</t>
+          <t>ktoby</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>wsi czuwał nad</t>
+          <t>a ktoby był</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>czuwać</t>
+          <t>ktoby</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>czuwał</t>
+          <t>ktoba</t>
         </is>
       </c>
     </row>
@@ -6511,22 +6511,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ktoby</t>
+          <t>niesprawiedliwym</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>a ktoby był</t>
+          <t>był niesprawiedliwym dla</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>ktoby</t>
+          <t>niesprawiedliwy</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>ktoba</t>
+          <t>sprawiedliwy</t>
         </is>
       </c>
     </row>
@@ -6536,22 +6536,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>niesprawiedliwym</t>
+          <t>poddanych</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>był niesprawiedliwym dla</t>
+          <t>dla poddanych stawał</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>niesprawiedliwy</t>
+          <t>poddany</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>sprawiedliwy</t>
+          <t>poddane</t>
         </is>
       </c>
     </row>
@@ -6561,22 +6561,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>poddanych</t>
+          <t>dbano</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>dla poddanych stawał</t>
+          <t>czas dbano o</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>poddany</t>
+          <t>dbać</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>poddane</t>
+          <t>dbano</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6586,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>dbano</t>
+          <t>szanowano</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>czas dbano o</t>
+          <t>i szanowano .</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>dbać</t>
+          <t>szanować</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>dbano</t>
+          <t>szanowano</t>
         </is>
       </c>
     </row>
@@ -6611,22 +6611,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>szanowano</t>
+          <t>Sanockie</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>i szanowano .</t>
+          <t>w Sanockie –</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>szanować</t>
+          <t>sanockie</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>szanowano</t>
+          <t>sanock</t>
         </is>
       </c>
     </row>
@@ -6636,22 +6636,22 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sanockie</t>
+          <t>poddanych</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>w Sanockie –</t>
+          <t>zdzierstwa poddanych –</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>sanockie</t>
+          <t>poddany</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>sanock</t>
+          <t>poddane</t>
         </is>
       </c>
     </row>
@@ -6661,22 +6661,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>poddanych</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>zdzierstwa poddanych –</t>
+          <t>Dziadek móy mawiał</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>poddany</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>poddane</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>tego</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Dziadek móy mawiał</t>
+          <t>Pana tego nie</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>ten</t>
         </is>
       </c>
     </row>
@@ -6711,22 +6711,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>tego</t>
+          <t>obsadzane</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Pana tego nie</t>
+          <t>części obsadzane były</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>obsadzać</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>obsadzane</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>obsadzane</t>
+          <t>zagonową</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>części obsadzane były</t>
+          <t>szlachtą zagonową –</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>obsadzać</t>
+          <t>zagonowy</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>obsadzane</t>
+          <t>zagonowa</t>
         </is>
       </c>
     </row>
@@ -6761,22 +6761,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>zagonową</t>
+          <t>cząstkową</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>szlachtą zagonową –</t>
+          <t>– cząstkową –</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>zagonowy</t>
+          <t>cząstkowy</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>zagonowa</t>
+          <t>cząstkowa</t>
         </is>
       </c>
     </row>
@@ -6786,22 +6786,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>cząstkową</t>
+          <t>czynszową</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>– cząstkową –</t>
+          <t>– czynszową –</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>cząstkowy</t>
+          <t>czynszowy</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>cząstkowa</t>
+          <t>czynszowa</t>
         </is>
       </c>
     </row>
@@ -6811,22 +6811,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>czynszową</t>
+          <t>poduczył</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>– czynszową –</t>
+          <t>Chłopak poduczył się</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>czynszowy</t>
+          <t>poduczyć</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>czynszowa</t>
+          <t>poduczył</t>
         </is>
       </c>
     </row>
@@ -6836,22 +6836,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>poduczył</t>
+          <t>ludowemi</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Chłopak poduczył się</t>
+          <t>dziś ludowemi zwanych</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>poduczyć</t>
+          <t>ludowe</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>poduczył</t>
+          <t>ludowa</t>
         </is>
       </c>
     </row>
@@ -6861,22 +6861,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>lizną</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>dziś ludowemi zwanych</t>
+          <t>czasem lizną trochę</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>ludowe</t>
+          <t>liznąć</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>ludowa</t>
+          <t>lizna</t>
         </is>
       </c>
     </row>
@@ -6886,22 +6886,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>lizną</t>
+          <t>poduczywszy</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>czasem lizną trochę</t>
+          <t>– poduczywszy się</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>liznąć</t>
+          <t>poduczyć</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>lizna</t>
+          <t>poduczywsz</t>
         </is>
       </c>
     </row>
@@ -6911,22 +6911,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>poduczywszy</t>
+          <t>manipulacyi</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>– poduczywszy się</t>
+          <t>– manipulacyi urzędowey</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>poduczyć</t>
+          <t>manipulacya</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>poduczywsz</t>
+          <t>manipulaca</t>
         </is>
       </c>
     </row>
@@ -6936,22 +6936,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>urzędowey</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>– manipulacyi urzędowey</t>
+          <t>manipulacyi urzędowey –</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>manipulacya</t>
+          <t>urzędowa</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>manipulaca</t>
+          <t>urzędowie</t>
         </is>
       </c>
     </row>
@@ -6961,22 +6961,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>zdawał</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>manipulacyi urzędowey –</t>
+          <t>– zdawał egzamin</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>urzędowa</t>
+          <t>zdawać</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>urzędowie</t>
+          <t>zdawał</t>
         </is>
       </c>
     </row>
@@ -6986,22 +6986,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>zdawał</t>
+          <t>Cyrkule</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>– zdawał egzamin</t>
+          <t>w Cyrkule i</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>zdawać</t>
+          <t>cyrkuł</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>zdawał</t>
+          <t>cyrkule</t>
         </is>
       </c>
     </row>
@@ -7011,22 +7011,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Cyrkule</t>
+          <t>przyjmował</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>w Cyrkule i</t>
+          <t>Mandatyrusza przyjmował Dziedzic</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>cyrkuł</t>
+          <t>przyjmować</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>cyrkule</t>
+          <t>przyjmował</t>
         </is>
       </c>
     </row>
@@ -7036,22 +7036,22 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>przyjmował</t>
+          <t>ręcząc</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Mandatyrusza przyjmował Dziedzic</t>
+          <t>odpowiedzialność ręcząc za</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>przyjmować</t>
+          <t>ręczyć</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>przyjmował</t>
+          <t>ręcząc</t>
         </is>
       </c>
     </row>
@@ -7061,22 +7061,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ręcząc</t>
+          <t>starościńskie</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>odpowiedzialność ręcząc za</t>
+          <t>depozyta starościńskie .</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>ręczyć</t>
+          <t>starościński</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>ręcząc</t>
+          <t>starościńska</t>
         </is>
       </c>
     </row>
@@ -7086,22 +7086,22 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>starościńskie</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>depozyta starościńskie .</t>
+          <t>od Dziedzica pensyę</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>starościński</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>starościńska</t>
+          <t>dziedzica</t>
         </is>
       </c>
     </row>
@@ -7111,22 +7111,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>korcy</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>od Dziedzica pensyę</t>
+          <t>50 korcy ordynaryi</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>korzec</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>dziedzica</t>
+          <t>koriec</t>
         </is>
       </c>
     </row>
@@ -7136,22 +7136,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>korcy</t>
+          <t>ordynaryi</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>50 korcy ordynaryi</t>
+          <t>korcy ordynaryi –</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>korzec</t>
+          <t>ordynarya</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>koriec</t>
+          <t>ordynary</t>
         </is>
       </c>
     </row>
@@ -7161,22 +7161,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>pomieszkanie</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>korcy ordynaryi –</t>
+          <t>, pomieszkanie opał</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>ordynarya</t>
+          <t>pomieszkać</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ordynary</t>
+          <t>pomieszkanie</t>
         </is>
       </c>
     </row>
@@ -7186,22 +7186,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>pomieszkanie</t>
+          <t>zastępował</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>, pomieszkanie opał</t>
+          <t>jakim zastępował Dziedzica</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>pomieszkać</t>
+          <t>zastępować</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>pomieszkanie</t>
+          <t>zastępował</t>
         </is>
       </c>
     </row>
@@ -7211,22 +7211,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>zastępował</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>jakim zastępował Dziedzica</t>
+          <t>zastępował Dziedzica .</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>zastępować</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>zastępował</t>
+          <t>dziedzica</t>
         </is>
       </c>
     </row>
@@ -7236,22 +7236,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>szczupłey</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>zastępował Dziedzica .</t>
+          <t>tak szczupłey dotacyi</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>szczupła</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>dziedzica</t>
+          <t>szczupłea</t>
         </is>
       </c>
     </row>
@@ -7261,22 +7261,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>dotacyi</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>tak szczupłey dotacyi</t>
+          <t>szczupłey dotacyi uwzględniając</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>szczupła</t>
+          <t>dotacya</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>szczupłea</t>
+          <t>dotacy</t>
         </is>
       </c>
     </row>
@@ -7286,22 +7286,22 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>kosztował</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>szczupłey dotacyi uwzględniając</t>
+          <t>mięsa kosztował dzisiejszych</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>dotacya</t>
+          <t>kosztować</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>dotacy</t>
+          <t>kosztował</t>
         </is>
       </c>
     </row>
@@ -7311,22 +7311,22 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>kosztował</t>
+          <t>centy</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>mięsa kosztował dzisiejszych</t>
+          <t>33 centy –</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>kosztować</t>
+          <t>cent</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>kosztował</t>
+          <t>centa</t>
         </is>
       </c>
     </row>
@@ -7336,22 +7336,22 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>centy</t>
+          <t>żyta</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>33 centy –</t>
+          <t>korzec żyta dzisiejszych</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>cent</t>
+          <t>żyto</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>centa</t>
+          <t>żyta</t>
         </is>
       </c>
     </row>
@@ -7361,22 +7361,22 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>żyta</t>
+          <t>przytem</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>korzec żyta dzisiejszych</t>
+          <t>mając przytem jakiś</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>żyto</t>
+          <t>przyto</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>żyta</t>
+          <t>przyt</t>
         </is>
       </c>
     </row>
@@ -7386,22 +7386,22 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>przytem</t>
+          <t>ci</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>mając przytem jakiś</t>
+          <t>Panowie ci mieli</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>przyto</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>przyt</t>
+          <t>ty</t>
         </is>
       </c>
     </row>
@@ -7411,22 +7411,22 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>lepiey</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Panowie ci mieli</t>
+          <t>nieraz lepiey jak</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>dobrze</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>ty</t>
+          <t>lepiey</t>
         </is>
       </c>
     </row>
@@ -7436,22 +7436,22 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>cyrkularny</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>nieraz lepiey jak</t>
+          <t>komisarz cyrkularny .</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>dobrze</t>
+          <t>cyrkularny</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>cyrkularna</t>
         </is>
       </c>
     </row>
@@ -7461,22 +7461,22 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>cyrkularny</t>
+          <t>ładąn</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>komisarz cyrkularny .</t>
+          <t>– ładąn parą</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>cyrkularny</t>
+          <t>ładna</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>cyrkularna</t>
+          <t>ładąn</t>
         </is>
       </c>
     </row>
@@ -7486,22 +7486,22 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>siwoszów</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>– ładąn parą</t>
+          <t>parą siwoszów ,</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>ładna</t>
+          <t>siwosz</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>siwosze</t>
         </is>
       </c>
     </row>
@@ -7511,22 +7511,22 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>siwoszów</t>
+          <t>niekryta</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>parą siwoszów ,</t>
+          <t>bryczka niekryta )</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>siwosz</t>
+          <t>niekryty</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>siwosze</t>
+          <t>niekryta</t>
         </is>
       </c>
     </row>
@@ -7536,22 +7536,22 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>niekryta</t>
+          <t>ubrany</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>bryczka niekryta )</t>
+          <t>elegancko ubrany –</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>niekryty</t>
+          <t>ubrany</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>niekryta</t>
+          <t>ubrać</t>
         </is>
       </c>
     </row>
@@ -7561,22 +7561,22 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ubrany</t>
+          <t>pensyi</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>elegancko ubrany –</t>
+          <t>brał pensyi 600</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>ubrany</t>
+          <t>pensyi</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>ubrać</t>
+          <t>pens</t>
         </is>
       </c>
     </row>
@@ -7586,22 +7586,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>pensyi</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>brał pensyi 600</t>
+          <t>gdy móy Dziad</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>pensyi</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>pens</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -7611,22 +7611,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>podbierając</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>gdy móy Dziad</t>
+          <t>Dziad podbierając posłuszeństwo</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>podbierać</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>podbierający</t>
         </is>
       </c>
     </row>
@@ -7636,22 +7636,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>podbierając</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Dziad podbierając posłuszeństwo</t>
+          <t>w Bludnikach –</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>podbierać</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>podbierający</t>
+          <t>bludnik</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7661,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>w Bludnikach –</t>
+          <t>do Bludnik należały</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Pokasowce</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>do Bludnik należały</t>
+          <t>należały Pokasowce i</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>pokasowce</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>pokasowiec</t>
         </is>
       </c>
     </row>
@@ -7711,22 +7711,22 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Pokasowce</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>należały Pokasowce i</t>
+          <t>nowego Dziedzica –</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>pokasowce</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>pokasowiec</t>
+          <t>dziedzica</t>
         </is>
       </c>
     </row>
@@ -7736,22 +7736,22 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>może</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>nowego Dziedzica –</t>
+          <t>a może to</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>może</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>dziedzica</t>
+          <t>móc</t>
         </is>
       </c>
     </row>
@@ -7761,22 +7761,22 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>może</t>
+          <t>wstępowali</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>a może to</t>
+          <t>nieraz wstępowali –</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>może</t>
+          <t>wstępować</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>móc</t>
+          <t>wstępowala</t>
         </is>
       </c>
     </row>
@@ -7786,22 +7786,22 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>wstępowali</t>
+          <t>obszerna</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>nieraz wstępowali –</t>
+          <t>była obszerna czysta</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>wstępować</t>
+          <t>obszerny</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>wstępowala</t>
+          <t>obszerna</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>była obszerna czysta</t>
+          <t>) obszerna dokoła</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7836,22 +7836,22 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>obszerna</t>
+          <t>nakryty</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>) obszerna dokoła</t>
+          <t>stół nakryty długim</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>obszerny</t>
+          <t>nakryć</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>obszerna</t>
+          <t>nakryt</t>
         </is>
       </c>
     </row>
@@ -7861,22 +7861,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>nakryty</t>
+          <t>bielone</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>stół nakryty długim</t>
+          <t>szerokie bielone grube</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>nakryć</t>
+          <t>bielić</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>nakryt</t>
+          <t>bielone</t>
         </is>
       </c>
     </row>
@@ -7886,22 +7886,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>bielone</t>
+          <t>przędzą</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>szerokie bielone grube</t>
+          <t>czerwoną przędzą i</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>bielić</t>
+          <t>przędza</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>bielone</t>
+          <t>prządz</t>
         </is>
       </c>
     </row>
@@ -7911,22 +7911,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>przędzą</t>
+          <t>zkończone</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>czerwoną przędzą i</t>
+          <t>białą zkończone )</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>przędza</t>
+          <t>zkończyć</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>prządz</t>
+          <t>zkończone</t>
         </is>
       </c>
     </row>
@@ -7936,22 +7936,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>białą zkończone )</t>
+          <t>– niewiem czy</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>zkończyć</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>niew</t>
         </is>
       </c>
     </row>
@@ -7961,22 +7961,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>– niewiem czy</t>
+          <t>Dziadek móy odpowiedział</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>niew</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -7986,22 +7986,22 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>człowiecze</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Dziadek móy odpowiedział</t>
+          <t>Ty człowiecze na</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>człowiek</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>człowiec</t>
         </is>
       </c>
     </row>
@@ -8011,22 +8011,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>człowiecze</t>
+          <t>nieporadzisz</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Ty człowiecze na</t>
+          <t>mi nieporadzisz –</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>człowiek</t>
+          <t>nieporadzić</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>człowiec</t>
+          <t>nieporadzisz</t>
         </is>
       </c>
     </row>
@@ -8036,22 +8036,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>nieporadzisz</t>
+          <t>poradzisz</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>mi nieporadzisz –</t>
+          <t>to poradzisz ?</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>nieporadzić</t>
+          <t>poradzić</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>nieporadzisz</t>
+          <t>poradzisz</t>
         </is>
       </c>
     </row>
@@ -8061,22 +8061,22 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>poradzisz</t>
+          <t>wyliczył</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>to poradzisz ?</t>
+          <t>i wyliczył 2000</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>poradzić</t>
+          <t>wyliczyć</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>poradzisz</t>
+          <t>wyliczył</t>
         </is>
       </c>
     </row>
@@ -8086,22 +8086,22 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>wyliczył</t>
+          <t>mojey</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>i wyliczył 2000</t>
+          <t>za mojey pamięci</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>wyliczyć</t>
+          <t>mój</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>wyliczył</t>
+          <t>mojenie</t>
         </is>
       </c>
     </row>
@@ -8111,22 +8111,22 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>liczono</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>za mojey pamięci</t>
+          <t>pamięci liczono sześciu</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>liczyć</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>mojenie</t>
+          <t>liczono</t>
         </is>
       </c>
     </row>
@@ -8136,22 +8136,22 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>liczono</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>pamięci liczono sześciu</t>
+          <t>w Bludnikach .</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>liczyć</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>liczono</t>
+          <t>bludnik</t>
         </is>
       </c>
     </row>
@@ -8161,22 +8161,22 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>siekiery</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>w Bludnikach .</t>
+          <t>od siekiery –</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>siekiera</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>siekier</t>
         </is>
       </c>
     </row>
@@ -8186,22 +8186,22 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>siekiery</t>
+          <t>Lubelskie</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>od siekiery –</t>
+          <t>w Lubelskie jako</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>siekiera</t>
+          <t>lubelskie</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>siekier</t>
+          <t>lubelska</t>
         </is>
       </c>
     </row>
@@ -8211,22 +8211,22 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Lubelskie</t>
+          <t>szyzmatycki</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>w Lubelskie jako</t>
+          <t>pop szyzmatycki jako</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>lubelskie</t>
+          <t>szyzmatycki</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>lubelska</t>
+          <t>szyzmatycka</t>
         </is>
       </c>
     </row>
@@ -8236,22 +8236,22 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>szyzmatycki</t>
+          <t>wsławił</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>pop szyzmatycki jako</t>
+          <t>się wsławił .</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>szyzmatycki</t>
+          <t>wsławić</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>szyzmatycka</t>
+          <t>wsławił</t>
         </is>
       </c>
     </row>
@@ -8261,22 +8261,22 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>wsławił</t>
+          <t>późney</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>się wsławił .</t>
+          <t>tak późney dokupił</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>wsławić</t>
+          <t>późno</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>wsławił</t>
+          <t>późnoy</t>
         </is>
       </c>
     </row>
@@ -8286,22 +8286,22 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>dokupił</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>tak późney dokupił</t>
+          <t>późney dokupił Dziad</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>późno</t>
+          <t>dokupić</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>późnoy</t>
+          <t>dokupił</t>
         </is>
       </c>
     </row>
@@ -8311,22 +8311,22 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>dokupił</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>późney dokupił Dziad</t>
+          <t>Dziad móy Dorchów</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>dokupić</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>dokupił</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -8336,22 +8336,22 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>Dorchów</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Dziad móy Dorchów</t>
+          <t>móy Dorchów i</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>dorchów</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>dorch</t>
         </is>
       </c>
     </row>
@@ -8361,22 +8361,22 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Dorchów</t>
+          <t>Kurypów</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>móy Dorchów i</t>
+          <t>i Kurypów –</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>dorchów</t>
+          <t>kurypów</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>dorch</t>
+          <t>kuryp</t>
         </is>
       </c>
     </row>
@@ -8386,22 +8386,22 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Kurypów</t>
+          <t>Dochorowie</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>i Kurypów –</t>
+          <t>W Dochorowie osadził</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>kurypów</t>
+          <t>dochorów</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>kuryp</t>
+          <t>dochór</t>
         </is>
       </c>
     </row>
@@ -8411,22 +8411,22 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Dochorowie</t>
+          <t>osadził</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>W Dochorowie osadził</t>
+          <t>Dochorowie osadził nayjstarszego</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>dochorów</t>
+          <t>osadzić</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>dochór</t>
+          <t>osadził</t>
         </is>
       </c>
     </row>
@@ -8436,22 +8436,22 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>osadził</t>
+          <t>nayjstarszego</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Dochorowie osadził nayjstarszego</t>
+          <t>osadził nayjstarszego syna</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>osadzić</t>
+          <t>stary</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>osadził</t>
+          <t>niejstarszy</t>
         </is>
       </c>
     </row>
@@ -8461,22 +8461,22 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>ruskim</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>osadził nayjstarszego syna</t>
+          <t>w ruskim języku</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>stary</t>
+          <t>ruski</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>niejstarszy</t>
+          <t>rusk</t>
         </is>
       </c>
     </row>
@@ -8486,22 +8486,22 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ruskim</t>
+          <t>Toje</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>w ruskim języku</t>
+          <t>– Toje diło</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>ruski</t>
+          <t>toje</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>rusk</t>
+          <t>tój</t>
         </is>
       </c>
     </row>
@@ -8511,22 +8511,22 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Toje</t>
+          <t>daruju</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>– Toje diło</t>
+          <t>diło daruju ukochanomu</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>toje</t>
+          <t>daruju</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>tój</t>
+          <t>daruj</t>
         </is>
       </c>
     </row>
@@ -8536,22 +8536,22 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>daruju</t>
+          <t>ukochanomu</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>diło daruju ukochanomu</t>
+          <t>daruju ukochanomu Synu</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>daruju</t>
+          <t>ukochanomu</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>daruj</t>
+          <t>ukochan</t>
         </is>
       </c>
     </row>
@@ -8561,22 +8561,22 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ukochanomu</t>
+          <t>mojomu</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>daruju ukochanomu Synu</t>
+          <t>Synu mojomu Mychayłowu</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>ukochanomu</t>
+          <t>mojomu</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>ukochan</t>
+          <t>mojom</t>
         </is>
       </c>
     </row>
@@ -8586,22 +8586,22 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>mojomu</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Synu mojomu Mychayłowu</t>
+          <t>mojomu Mychayłowu .</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>mojomu</t>
+          <t>mychayłowu</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>mojom</t>
+          <t>mychaył</t>
         </is>
       </c>
     </row>
@@ -8611,22 +8611,22 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Mychayłowu</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>mojomu Mychayłowu .</t>
+          <t>. Bludniki oddał</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>mychayłowu</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>mychaył</t>
+          <t>bludnik</t>
         </is>
       </c>
     </row>
@@ -8636,22 +8636,22 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>iOycu</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>. Bludniki oddał</t>
+          <t>Józefowi iOycu mojemu</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>ioyciec</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>joyc</t>
         </is>
       </c>
     </row>
@@ -8661,22 +8661,22 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>iOycu</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Józefowi iOycu mojemu</t>
+          <t>Oyciec móy objął</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>ioyciec</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>joyc</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -8686,22 +8686,22 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>ożenienia</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Oyciec móy objął</t>
+          <t>roku ożenienia się</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>ożenić</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>ożenienie</t>
         </is>
       </c>
     </row>
@@ -8711,22 +8711,22 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ożenienia</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>roku ożenienia się</t>
+          <t>mojego Oyca pono</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>ożenić</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>ożenienie</t>
+          <t>oyca</t>
         </is>
       </c>
     </row>
@@ -8736,22 +8736,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>mojego Oyca pono</t>
+          <t>Dziadek móy do</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>Siemginowa</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Dziadek móy do</t>
+          <t>do Siemginowa –</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>siemginów</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>siemginowa</t>
         </is>
       </c>
     </row>
@@ -8786,22 +8786,22 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Siemginowa</t>
+          <t>dośmierci</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>do Siemginowa –</t>
+          <t>aż dośmierci Oyca</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>siemginów</t>
+          <t>dośmierć</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>siemginowa</t>
+          <t>dośmiert</t>
         </is>
       </c>
     </row>
@@ -8811,22 +8811,22 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>aż dośmierci Oyca</t>
+          <t>dośmierci Oyca przy</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>dośmierć</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>dośmiert</t>
+          <t>oyca</t>
         </is>
       </c>
     </row>
@@ -8836,22 +8836,22 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Nim</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>dośmierci Oyca przy</t>
+          <t>przy Nim zostawał</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>on</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>nim</t>
         </is>
       </c>
     </row>
@@ -8861,22 +8861,22 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Nim</t>
+          <t>gospodarując</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>przy Nim zostawał</t>
+          <t>– gospodarując bo</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>gospodarować</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>nim</t>
+          <t>gospodarując</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>gospodarując</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>– gospodarując bo</t>
+          <t>Dziadek móy ku</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>gospodarować</t>
+          <t>móy</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>gospodarując</t>
+          <t>myja</t>
         </is>
       </c>
     </row>
@@ -8911,22 +8911,22 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>ociemniał</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Dziadek móy ku</t>
+          <t>życia ociemniał .</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>móy</t>
+          <t>ociemniać</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>myja</t>
+          <t>ociemniał</t>
         </is>
       </c>
     </row>
@@ -8936,22 +8936,22 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ociemniał</t>
+          <t>Zdejmował</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>życia ociemniał .</t>
+          <t>. Zdejmował Mu</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>ociemniać</t>
+          <t>zdejmować</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ociemniał</t>
+          <t>zdejmował</t>
         </is>
       </c>
     </row>
@@ -8961,22 +8961,22 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Zdejmował</t>
+          <t>Semiginów</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>. Zdejmował Mu</t>
+          <t>własność Semiginów .</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>zdejmować</t>
+          <t>semiginów</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>zdejmował</t>
+          <t>semigin</t>
         </is>
       </c>
     </row>
@@ -8986,22 +8986,22 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Semiginów</t>
+          <t>wydzielił</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>własność Semiginów .</t>
+          <t>Kazimierzowi wydzielił Oyciec</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>semiginów</t>
+          <t>wydzielić</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>semigin</t>
+          <t>wydzielił</t>
         </is>
       </c>
     </row>
@@ -9011,22 +9011,22 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>wydzielił</t>
+          <t>Osiadł</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Kazimierzowi wydzielił Oyciec</t>
+          <t>. Osiadł on</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>wydzielić</t>
+          <t>osiąść</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>wydzielił</t>
+          <t>osiadł</t>
         </is>
       </c>
     </row>
@@ -9036,22 +9036,22 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Osiadł</t>
+          <t>niewinem</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>. Osiadł on</t>
+          <t>Lipa niewinem .</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>osiąść</t>
+          <t>niewiedzieć</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>osiadł</t>
+          <t>niewine</t>
         </is>
       </c>
     </row>
@@ -9061,22 +9061,22 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>niewinem</t>
+          <t>najstarszy</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Lipa niewinem .</t>
+          <t>był najstarszy w</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>niewiedzieć</t>
+          <t>stary</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>niewine</t>
+          <t>najstarsza</t>
         </is>
       </c>
     </row>
@@ -9086,22 +9086,22 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>najstarszy</t>
+          <t>sąsiadował</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>był najstarszy w</t>
+          <t>rodzinie sąsiadował z</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>stary</t>
+          <t>sąsiadować</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>najstarsza</t>
+          <t>sąsiadował</t>
         </is>
       </c>
     </row>
@@ -9111,22 +9111,22 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>sąsiadował</t>
+          <t>Bludnikami</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>rodzinie sąsiadował z</t>
+          <t>z Bludnikami o</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>sąsiadować</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>sąsiadował</t>
+          <t>bludnik</t>
         </is>
       </c>
     </row>
@@ -9136,22 +9136,22 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Bludnikami</t>
+          <t>Ożeniony</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>z Bludnikami o</t>
+          <t>. Ożeniony ze</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>ożenić</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>ożenion</t>
         </is>
       </c>
     </row>
@@ -9161,22 +9161,22 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Ożeniony</t>
+          <t>Temerowiec</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>. Ożeniony ze</t>
+          <t>z Temerowiec ,</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>ożenić</t>
+          <t>temerowice</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>ożenion</t>
+          <t>temerowiec</t>
         </is>
       </c>
     </row>
@@ -9186,22 +9186,22 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>Zabilskich</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>z Temerowiec ,</t>
+          <t>Stanisława Zabilskich –</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>temerowice</t>
+          <t>zabilski</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>temerowiec</t>
+          <t>zabilska</t>
         </is>
       </c>
     </row>
@@ -9211,22 +9211,22 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Zabilskich</t>
+          <t>jedynaka</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Stanisława Zabilskich –</t>
+          <t>Syna jedynaka Sabina</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>zabilski</t>
+          <t>jedynak</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>zabilska</t>
+          <t>jedynaka</t>
         </is>
       </c>
     </row>
@@ -9236,22 +9236,22 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>jedynaka</t>
+          <t>Sabina</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Syna jedynaka Sabina</t>
+          <t>jedynaka Sabina .</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>jedynak</t>
+          <t>sabin</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>jedynaka</t>
+          <t>sabina</t>
         </is>
       </c>
     </row>
@@ -9261,22 +9261,22 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Sabina</t>
+          <t>Wcześnie</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>jedynaka Sabina .</t>
+          <t>. Wcześnie go</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>sabin</t>
+          <t>wcześnie</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>sabina</t>
+          <t>wczesno</t>
         </is>
       </c>
     </row>
@@ -9286,22 +9286,22 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Wcześnie</t>
+          <t>odumarł</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>. Wcześnie go</t>
+          <t>Oyciec odumarł ale</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>wcześnie</t>
+          <t>odumrzeć</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>wczesno</t>
+          <t>odumarł</t>
         </is>
       </c>
     </row>
@@ -9311,22 +9311,22 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>odumarł</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Oyciec odumarł ale</t>
+          <t>za Oycem doszedłszy</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>odumrzeć</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>odumarł</t>
+          <t>oycie</t>
         </is>
       </c>
     </row>
@@ -9336,22 +9336,22 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>doszedłszy</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>za Oycem doszedłszy</t>
+          <t>Oycem doszedłszy lat</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>dojść</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>oycie</t>
+          <t>doszedłs</t>
         </is>
       </c>
     </row>
@@ -9361,22 +9361,22 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>doszedłszy</t>
+          <t>zachorował</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Oycem doszedłszy lat</t>
+          <t>tyfus zachorował i</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>dojść</t>
+          <t>zachorować</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>doszedłs</t>
+          <t>zachorował</t>
         </is>
       </c>
     </row>
@@ -9386,22 +9386,22 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>zachorował</t>
+          <t>sukcessyi</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>tyfus zachorował i</t>
+          <t>prawem sukcessyi przeszedł</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>zachorować</t>
+          <t>sukcessya</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>zachorował</t>
+          <t>sukcessyj</t>
         </is>
       </c>
     </row>
@@ -9411,22 +9411,22 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>zapisała</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>prawem sukcessyi przeszedł</t>
+          <t>ta zapisała Dorchów</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>sukcessya</t>
+          <t>zapisać</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>sukcessyj</t>
+          <t>zapisał</t>
         </is>
       </c>
     </row>
@@ -9436,22 +9436,22 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>zapisała</t>
+          <t>Dorchów</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>ta zapisała Dorchów</t>
+          <t>zapisała Dorchów bratu</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>zapisać</t>
+          <t>dorchów</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>zapisał</t>
+          <t>dorch</t>
         </is>
       </c>
     </row>
@@ -9461,22 +9461,22 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Dorchów</t>
+          <t>temu</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>zapisała Dorchów bratu</t>
+          <t>żona temu pono</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>dorchów</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>dorch</t>
+          <t>temu</t>
         </is>
       </c>
     </row>
@@ -9486,22 +9486,22 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>temu</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>żona temu pono</t>
+          <t>z Bełzkiego ,</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>bełzkiego</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>temu</t>
+          <t>bełziek</t>
         </is>
       </c>
     </row>
@@ -9511,22 +9511,22 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Bełzkiego</t>
+          <t>Dorchów</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>z Bełzkiego ,</t>
+          <t>zostawił Dorchów swojemu</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>bełzkiego</t>
+          <t>dorchów</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>bełziek</t>
+          <t>dorch</t>
         </is>
       </c>
     </row>
@@ -9536,22 +9536,22 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Dorchów</t>
+          <t>Bywał</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>zostawił Dorchów swojemu</t>
+          <t>. Bywał często</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>dorchów</t>
+          <t>bywać</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>dorch</t>
+          <t>bywał</t>
         </is>
       </c>
     </row>
@@ -9561,22 +9561,22 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Bywał</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>. Bywał często</t>
+          <t>– niebył gospodarzem</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>bywać</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>bywał</t>
+          <t>niebył</t>
         </is>
       </c>
     </row>
@@ -9586,22 +9586,22 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>więcey</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>– niebył gospodarzem</t>
+          <t>gospodarzem więcey fantasta</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>dużo</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>więcea</t>
         </is>
       </c>
     </row>
@@ -9611,22 +9611,22 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>czeladzią</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>gospodarzem więcey fantasta</t>
+          <t>między czeladzią i</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>dużo</t>
+          <t>czeladź</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>więcea</t>
+          <t>czeladzia</t>
         </is>
       </c>
     </row>
@@ -9636,22 +9636,22 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>czeladzią</t>
+          <t>czytywał</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>między czeladzią i</t>
+          <t>kuchni czytywał wgłos</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>czeladź</t>
+          <t>czytywać</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>czeladzia</t>
+          <t>czytywał</t>
         </is>
       </c>
     </row>
@@ -9661,22 +9661,22 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>czytywał</t>
+          <t>masami</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>kuchni czytywał wgłos</t>
+          <t>skupował masami poziomki</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>czytywać</t>
+          <t>masa</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>czytywał</t>
+          <t>masy</t>
         </is>
       </c>
     </row>
@@ -9686,22 +9686,22 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>masami</t>
+          <t>poziomki</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>skupował masami poziomki</t>
+          <t>masami poziomki i</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>masa</t>
+          <t>poziomka</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>masy</t>
+          <t>poziomek</t>
         </is>
       </c>
     </row>
@@ -9711,22 +9711,22 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>poziomki</t>
+          <t>częstował</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>masami poziomki i</t>
+          <t>i częstował cały</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>poziomka</t>
+          <t>częstować</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>poziomek</t>
+          <t>częstował</t>
         </is>
       </c>
     </row>
@@ -9736,22 +9736,22 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>częstował</t>
+          <t>pobożny</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>i częstował cały</t>
+          <t>bardzo pobożny –</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>częstować</t>
+          <t>pobożny</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>częstował</t>
+          <t>pobożna</t>
         </is>
       </c>
     </row>
@@ -9761,22 +9761,22 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>pobożny</t>
+          <t>post</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>bardzo pobożny –</t>
+          <t>przyszedł post –</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>pobożny</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>pobożna</t>
+          <t>posterunkowy</t>
         </is>
       </c>
     </row>
@@ -9786,22 +9786,22 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>ligał</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>przyszedł post –</t>
+          <t>– ligał na</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>ligać</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>posterunkowy</t>
+          <t>ligał</t>
         </is>
       </c>
     </row>
@@ -9811,22 +9811,22 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ligał</t>
+          <t>gołey</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>– ligał na</t>
+          <t>na gołey podłodze</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>ligać</t>
+          <t>goła</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>ligał</t>
+          <t>goło</t>
         </is>
       </c>
     </row>
@@ -9836,22 +9836,22 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>mortyfikował</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>na gołey podłodze</t>
+          <t>dyscypliną mortyfikował ciało</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>goła</t>
+          <t>mortyfikować</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>goło</t>
+          <t>mortyfikował</t>
         </is>
       </c>
     </row>
@@ -9861,22 +9861,22 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>mortyfikował</t>
+          <t>Zapraszał</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>dyscypliną mortyfikował ciało</t>
+          <t>– Zapraszał do</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>mortyfikować</t>
+          <t>zapraszać</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>mortyfikował</t>
+          <t>zapraszał</t>
         </is>
       </c>
     </row>
@@ -9886,22 +9886,22 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Zapraszał</t>
+          <t>niemogli</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>– Zapraszał do</t>
+          <t>ci niemogli długo</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>zapraszać</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>zapraszał</t>
+          <t>niemogli</t>
         </is>
       </c>
     </row>
@@ -9911,22 +9911,22 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>niemogli</t>
+          <t>uciekali</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>ci niemogli długo</t>
+          <t>i uciekali .</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>uciekać</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>niemogli</t>
+          <t>uciekal</t>
         </is>
       </c>
     </row>
@@ -9936,22 +9936,22 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>uciekali</t>
+          <t>obeyściu</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>i uciekali .</t>
+          <t>na obeyściu niemożna</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>uciekać</t>
+          <t>obeyście</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>uciekal</t>
+          <t>obeyść</t>
         </is>
       </c>
     </row>
@@ -9961,22 +9961,22 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>niemożna</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>na obeyściu niemożna</t>
+          <t>obeyściu niemożna było</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>obeyście</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>obeyść</t>
+          <t>niemożna</t>
         </is>
       </c>
     </row>
@@ -9986,22 +9986,22 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>niemożna</t>
+          <t>ukończył</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>obeyściu niemożna było</t>
+          <t>ten ukończył prawa</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>ukończyć</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>niemożna</t>
+          <t>ukończył</t>
         </is>
       </c>
     </row>
@@ -10011,22 +10011,22 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ukończył</t>
+          <t>oczytany</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>ten ukończył prawa</t>
+          <t>był oczytany –</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>ukończyć</t>
+          <t>oczytać</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>ukończył</t>
+          <t>oczytan</t>
         </is>
       </c>
     </row>
@@ -10036,22 +10036,22 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>oczytany</t>
+          <t>Zastała</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>był oczytany –</t>
+          <t>. Zastała go</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>oczytać</t>
+          <t>zastać</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>oczytan</t>
+          <t>zastała</t>
         </is>
       </c>
     </row>
@@ -10061,22 +10061,22 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Zastała</t>
+          <t>mim</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>. Zastała go</t>
+          <t>po mim ,</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>zastać</t>
+          <t>mim</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>zastała</t>
+          <t>mima</t>
         </is>
       </c>
     </row>
@@ -10086,22 +10086,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>mim</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>po mim ,</t>
+          <t>mojego Oyca spadała</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>mim</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>mima</t>
+          <t>oyca</t>
         </is>
       </c>
     </row>
@@ -10111,22 +10111,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>odstąpił</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>mojego Oyca spadała</t>
+          <t>spadała odstąpił On</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>odstąpić</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>odstąpił</t>
         </is>
       </c>
     </row>
@@ -10136,22 +10136,22 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>odstąpił</t>
+          <t>rodzonym</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>spadała odstąpił On</t>
+          <t>swoim rodzonym Treterowej</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>odstąpić</t>
+          <t>rodzić</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>odstąpił</t>
+          <t>rodzony</t>
         </is>
       </c>
     </row>
@@ -10161,22 +10161,22 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>rodzonym</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>swoim rodzonym Treterowej</t>
+          <t>i Swieżaskiey .</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>rodzić</t>
+          <t>swieżaska</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>rodzony</t>
+          <t>swieżaskie</t>
         </is>
       </c>
     </row>
@@ -10186,22 +10186,22 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>i Swieżaskiey .</t>
+          <t>śmierci Oyca z</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>swieżaska</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>swieżaskie</t>
+          <t>oyca</t>
         </is>
       </c>
     </row>
@@ -10211,22 +10211,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Stryiskim</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>śmierci Oyca z</t>
+          <t>w Stryiskim w</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>stryiskie</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>stryiski</t>
         </is>
       </c>
     </row>
@@ -10236,22 +10236,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Stryiskim</t>
+          <t>siedziało</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>w Stryiskim w</t>
+          <t>, siedziało razem</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>stryiskie</t>
+          <t>siedzieć</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>stryiski</t>
+          <t>siedziało</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>siedziało</t>
+          <t>razem</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>, siedziało razem</t>
+          <t>siedziało razem kilka</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>siedzieć</t>
+          <t>razem</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>siedziało</t>
+          <t>raz</t>
         </is>
       </c>
     </row>
@@ -10286,22 +10286,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>razem</t>
+          <t>generacyi</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>siedziało razem kilka</t>
+          <t>kilka generacyi na</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>razem</t>
+          <t>generacya</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>raz</t>
+          <t>generacyj</t>
         </is>
       </c>
     </row>
@@ -10311,22 +10311,22 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>generacyi</t>
+          <t>obeyściu</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>kilka generacyi na</t>
+          <t>jednem obeyściu było</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>generacya</t>
+          <t>obeyście</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>generacyj</t>
+          <t>obeyść</t>
         </is>
       </c>
     </row>
@@ -10336,22 +10336,22 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>niemając</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>jednem obeyściu było</t>
+          <t>Panny niemając widoków</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>obeyście</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>obeyść</t>
+          <t>niemający</t>
         </is>
       </c>
     </row>
@@ -10361,22 +10361,22 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>niemając</t>
+          <t>okropnie</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Panny niemając widoków</t>
+          <t>była okropnie brzydka</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>okropnie</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>niemający</t>
+          <t>okropna</t>
         </is>
       </c>
     </row>
@@ -10386,22 +10386,22 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>okropnie</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>była okropnie brzydka</t>
+          <t>sąsiedztwo Bludnik do</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>okropnie</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>okropna</t>
+          <t>bludnik</t>
         </is>
       </c>
     </row>
@@ -10411,22 +10411,22 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Martynowa</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>sąsiedztwo Bludnik do</t>
+          <t>do Martynowa do</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>martynów</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>martynowa</t>
         </is>
       </c>
     </row>
@@ -10436,22 +10436,22 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Martynowa</t>
+          <t>tym</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>do Martynowa do</t>
+          <t>z tym domem</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>martynów</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>martynowa</t>
+          <t>to</t>
         </is>
       </c>
     </row>
@@ -10461,22 +10461,22 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>tym</t>
+          <t>niemogła</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>z tym domem</t>
+          <t>znieść niemogła .</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>niemogła</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>niemogna</t>
         </is>
       </c>
     </row>
@@ -10486,22 +10486,22 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>niemogła</t>
+          <t>osiadły</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>znieść niemogła .</t>
+          <t>Józef osiadły na</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>niemogła</t>
+          <t>osiadły</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>niemogna</t>
+          <t>osiadła</t>
         </is>
       </c>
     </row>
@@ -10511,22 +10511,22 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>osiadły</t>
+          <t>Siemiginowie</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Józef osiadły na</t>
+          <t>na Siemiginowie już</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>osiadły</t>
+          <t>siemiginów</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>osiadła</t>
+          <t>siemigin</t>
         </is>
       </c>
     </row>
@@ -10536,22 +10536,22 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Siemiginowie</t>
+          <t>zbijał</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>na Siemiginowie już</t>
+          <t>kawalerem zbijał talarki</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>siemiginów</t>
+          <t>zbijać</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>siemigin</t>
+          <t>zbijał</t>
         </is>
       </c>
     </row>
@@ -10561,22 +10561,22 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>zbijał</t>
+          <t>talarki</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>kawalerem zbijał talarki</t>
+          <t>zbijał talarki oszczędzał</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>zbijać</t>
+          <t>talarek</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>zbijał</t>
+          <t>talarka</t>
         </is>
       </c>
     </row>
@@ -10586,22 +10586,22 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>talarki</t>
+          <t>krewni</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>zbijał talarki oszczędzał</t>
+          <t>to krewni Panny</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>talarek</t>
+          <t>krewny</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>talarka</t>
+          <t>krewnia</t>
         </is>
       </c>
     </row>
@@ -10611,22 +10611,22 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>krewni</t>
+          <t>Juli</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>to krewni Panny</t>
+          <t>Panny Juli ,</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>krewny</t>
+          <t>jula</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>krewnia</t>
+          <t>jul</t>
         </is>
       </c>
     </row>
@@ -10636,22 +10636,22 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Juli</t>
+          <t>utyskiwali</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Panny Juli ,</t>
+          <t>, utyskiwali że</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>jula</t>
+          <t>utyskiwać</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>utyskiwal</t>
         </is>
       </c>
     </row>
@@ -10661,22 +10661,22 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>utyskiwali</t>
+          <t>niema</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>, utyskiwali że</t>
+          <t>że niema sukcessorów</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>utyskiwać</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>utyskiwal</t>
+          <t>niemy</t>
         </is>
       </c>
     </row>
@@ -10686,22 +10686,22 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>niema</t>
+          <t>zdało</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>że niema sukcessorów</t>
+          <t>że zdało by</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>zdać</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>niemy</t>
+          <t>zdało</t>
         </is>
       </c>
     </row>
@@ -10711,22 +10711,22 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>zdało</t>
+          <t>gospodarzył</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>że zdało by</t>
+          <t>– gospodarzył chował</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>zdać</t>
+          <t>gospodarzyć</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>zdało</t>
+          <t>gospodarzyła</t>
         </is>
       </c>
     </row>
@@ -10736,22 +10736,22 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>gospodarzył</t>
+          <t>chował</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>– gospodarzył chował</t>
+          <t>gospodarzył chował stado</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>gospodarzyć</t>
+          <t>chować</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>gospodarzyła</t>
+          <t>chował</t>
         </is>
       </c>
     </row>
@@ -10761,22 +10761,22 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>chował</t>
+          <t>oddziedziczone</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>gospodarzył chował stado</t>
+          <t>Ojcu oddziedziczone znaczne</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>chować</t>
+          <t>oddziedziczyć</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>chował</t>
+          <t>oddziedziczone</t>
         </is>
       </c>
     </row>
@@ -10786,22 +10786,22 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>oddziedziczone</t>
+          <t>pielęgnował</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Ojcu oddziedziczone znaczne</t>
+          <t>, pielęgnował sady</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>oddziedziczyć</t>
+          <t>pielęgnować</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>oddziedziczone</t>
+          <t>pielęgnował</t>
         </is>
       </c>
     </row>
@@ -10811,22 +10811,22 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>pielęgnował</t>
+          <t>sady</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>, pielęgnował sady</t>
+          <t>pielęgnował sady i</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>pielęgnować</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>pielęgnował</t>
+          <t>sada</t>
         </is>
       </c>
     </row>
@@ -10836,22 +10836,22 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>sady</t>
+          <t>zbijał</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>pielęgnował sady i</t>
+          <t>i zbijał pieniądze</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>zbijać</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>sada</t>
+          <t>zbijał</t>
         </is>
       </c>
     </row>
@@ -10861,22 +10861,22 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>zbijał</t>
+          <t>Kruszelnicy</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>i zbijał pieniądze</t>
+          <t>do Kruszelnicy o</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>zbijać</t>
+          <t>kruszelnica</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>zbijał</t>
+          <t>kruszelnik</t>
         </is>
       </c>
     </row>
@@ -10886,22 +10886,22 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Kruszelnicy</t>
+          <t>odległey</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>do Kruszelnicy o</t>
+          <t>mil odległey od</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>kruszelnica</t>
+          <t>odległa</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>kruszelnik</t>
+          <t>odległea</t>
         </is>
       </c>
     </row>
@@ -10911,22 +10911,22 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>Siemignowa</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>mil odległey od</t>
+          <t>od Siemignowa –</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>odległa</t>
+          <t>siemignów</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>odległea</t>
+          <t>siemignowa</t>
         </is>
       </c>
     </row>
@@ -10936,22 +10936,22 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>ukartowana</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>od Siemignowa –</t>
+          <t>była ukartowana –</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>siemignów</t>
+          <t>ukartować</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>siemignowa</t>
+          <t>ukartowan</t>
         </is>
       </c>
     </row>
@@ -10961,22 +10961,22 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>ukartowana</t>
+          <t>hoża</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>była ukartowana –</t>
+          <t>się hoża jak</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>ukartować</t>
+          <t>hoży</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>ukartowan</t>
+          <t>hoża</t>
         </is>
       </c>
     </row>
@@ -10986,22 +10986,22 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>hoża</t>
+          <t>łania</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>się hoża jak</t>
+          <t>jak łania Panna</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>hoży</t>
+          <t>łania</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>hoża</t>
+          <t>łanie</t>
         </is>
       </c>
     </row>
@@ -11011,22 +11011,22 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>wyswatano</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>jak łania Panna</t>
+          <t>i wyswatano Jegomości</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>wyswatać</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>łanie</t>
+          <t>wyswatano</t>
         </is>
       </c>
     </row>
@@ -11036,22 +11036,22 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>wyswatano</t>
+          <t>Siemiginowa</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>i wyswatano Jegomości</t>
+          <t>sukcessorka Siemiginowa –</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>wyswatać</t>
+          <t>siemiginów</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>wyswatano</t>
+          <t>siemiginowa</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>Leśniowice</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>sukcessorka Siemiginowa –</t>
+          <t>miejscowość Leśniowice z</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>siemiginów</t>
+          <t>leśniowice</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>siemiginowa</t>
+          <t>leśniowika</t>
         </is>
       </c>
     </row>
@@ -11086,22 +11086,22 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Leśniowice</t>
+          <t>Lwowem</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>miejscowość Leśniowice z</t>
+          <t>pod Lwowem koło</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>leśniowice</t>
+          <t>lwów</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>leśniowika</t>
+          <t>lwowo</t>
         </is>
       </c>
     </row>
@@ -11111,22 +11111,22 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Lwowem</t>
+          <t>Nawaryi</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>pod Lwowem koło</t>
+          <t>koło Nawaryi i</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>lwów</t>
+          <t>nawarya</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>lwowo</t>
+          <t>nawary</t>
         </is>
       </c>
     </row>
@@ -11136,22 +11136,22 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Nawaryi</t>
+          <t>niemłodej</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>koło Nawaryi i</t>
+          <t>rękę niemłodej już</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>nawarya</t>
+          <t>niemłody</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>nawary</t>
+          <t>niemłoda</t>
         </is>
       </c>
     </row>
@@ -11161,22 +11161,22 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>niemłodej</t>
+          <t>ciepłey</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>rękę niemłodej już</t>
+          <t>ale ciepłey wdowy</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>niemłody</t>
+          <t>ciepły</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>niemłoda</t>
+          <t>ciepło</t>
         </is>
       </c>
     </row>
@@ -11186,22 +11186,22 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>Bałamuciła</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>ale ciepłey wdowy</t>
+          <t>. Bałamuciła przebierała</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>ciepły</t>
+          <t>bałamucić</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>ciepło</t>
+          <t>bałamucił</t>
         </is>
       </c>
     </row>
@@ -11211,22 +11211,22 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Bałamuciła</t>
+          <t>przebierała</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>. Bałamuciła przebierała</t>
+          <t>Bałamuciła przebierała –</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>bałamucić</t>
+          <t>przebierać</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>bałamucił</t>
+          <t>przebierała</t>
         </is>
       </c>
     </row>
@@ -11236,22 +11236,22 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>przebierała</t>
+          <t>liczącego</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Bałamuciła przebierała –</t>
+          <t>lat liczącego –</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>przebierać</t>
+          <t>liczyć</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>przebierała</t>
+          <t>liczący</t>
         </is>
       </c>
     </row>
@@ -11261,22 +11261,22 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>liczącego</t>
+          <t>dwuletnim</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>lat liczącego –</t>
+          <t>po dwuletnim z</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>liczyć</t>
+          <t>dwuletni</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>liczący</t>
+          <t>dwuletnim</t>
         </is>
       </c>
     </row>
@@ -11286,22 +11286,22 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>dwuletnim</t>
+          <t>pożyciu</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>po dwuletnim z</t>
+          <t>nim pożyciu –</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>dwuletni</t>
+          <t>pożycie</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>dwuletnim</t>
+          <t>pożyć</t>
         </is>
       </c>
     </row>
@@ -11311,22 +11311,22 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>pożyciu</t>
+          <t>zaryzykowała</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>nim pożyciu –</t>
+          <t>majątek zaryzykowała –</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>pożycie</t>
+          <t>zaryzykować</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>pożyć</t>
+          <t>zaryzykowała</t>
         </is>
       </c>
     </row>
@@ -11336,22 +11336,22 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>zaryzykowała</t>
+          <t>tego</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>majątek zaryzykowała –</t>
+          <t>z tego wywikłała</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>zaryzykować</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>zaryzykowała</t>
+          <t>ten</t>
         </is>
       </c>
     </row>
@@ -11361,22 +11361,22 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>tego</t>
+          <t>wywikłała</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>z tego wywikłała</t>
+          <t>tego wywikłała –</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>wywikłać</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>wywikłał</t>
         </is>
       </c>
     </row>
@@ -11386,22 +11386,22 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>wywikłała</t>
+          <t>dokupiła</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>tego wywikłała –</t>
+          <t>– dokupiła i</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>wywikłać</t>
+          <t>dokupić</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>wywikłał</t>
+          <t>dokupił</t>
         </is>
       </c>
     </row>
@@ -11411,22 +11411,22 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>dokupiła</t>
+          <t>przyległe</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>– dokupiła i</t>
+          <t>Lesniowic przyległe Mosty</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>dokupić</t>
+          <t>przyległy</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>dokupił</t>
+          <t>przyległo</t>
         </is>
       </c>
     </row>
@@ -11436,45 +11436,20 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>przyległe</t>
+          <t>Mosty</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Lesniowic przyległe Mosty</t>
+          <t>przyległe Mosty .</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>przyległy</t>
+          <t>mosty</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
-        <is>
-          <t>przyległo</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>Mosty</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>przyległe Mosty .</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>mosty</t>
-        </is>
-      </c>
-      <c r="E442" t="inlineStr">
         <is>
           <t>most</t>
         </is>
